--- a/benchmarking/results/spot_Phi-3-mini-4k-instruct_ep10_training_ds_v16_3-17_1-2_param-4_05112024_eval-summary.xlsx
+++ b/benchmarking/results/spot_Phi-3-mini-4k-instruct_ep10_training_ds_v16_3-17_1-2_param-4_05112024_eval-summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3948717948717949</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -579,16 +579,16 @@
         <v>0.8769230769230769</v>
       </c>
       <c r="E2" t="n">
-        <v>0.676923076923077</v>
+        <v>0.6871794871794872</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8179487179487179</v>
+        <v>0.8213675213675214</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8367521367521367</v>
       </c>
       <c r="I2" t="n">
         <v>0.5223880597014925</v>
@@ -600,13 +600,13 @@
         <v>0.5621890547263682</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="M2" t="n">
         <v>41</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5971223021582733</v>
+        <v>0.6007194244604317</v>
       </c>
       <c r="O2" t="n">
         <v>0.425</v>
@@ -615,10 +615,10 @@
         <v>0.4375</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2613636363636364</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3305785123966942</v>
+        <v>0.3388429752066116</v>
       </c>
       <c r="S2" t="n">
         <v>0.4125874125874126</v>

--- a/benchmarking/results/spot_Phi-3-mini-4k-instruct_ep10_training_ds_v16_3-17_1-2_param-4_05112024_eval-summary.xlsx
+++ b/benchmarking/results/spot_Phi-3-mini-4k-instruct_ep10_training_ds_v16_3-17_1-2_param-4_05112024_eval-summary.xlsx
@@ -570,61 +570,61 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3948717948717949</v>
+        <v>0.4205128205128205</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8769230769230769</v>
+        <v>0.9025641025641026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.676923076923077</v>
+        <v>0.6974358974358974</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8179487179487179</v>
+        <v>0.8247863247863247</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8384615384615385</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="J2" t="n">
         <v>128</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5621890547263682</v>
+        <v>0.5845771144278606</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.4220779220779221</v>
       </c>
       <c r="M2" t="n">
         <v>41</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5971223021582733</v>
+        <v>0.6187050359712231</v>
       </c>
       <c r="O2" t="n">
         <v>0.425</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4375</v>
+        <v>0.453125</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2613636363636364</v>
+        <v>0.2873563218390804</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3305785123966942</v>
+        <v>0.3553719008264463</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4125874125874126</v>
+        <v>0.4475524475524476</v>
       </c>
       <c r="T2" t="n">
-        <v>0.253968253968254</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="U2" t="n">
         <v>0.2222222222222222</v>
@@ -636,16 +636,16 @@
         <v>0.2325581395348837</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarking/results/spot_Phi-3-mini-4k-instruct_ep10_training_ds_v16_3-17_1-2_param-4_05112024_eval-summary.xlsx
+++ b/benchmarking/results/spot_Phi-3-mini-4k-instruct_ep10_training_ds_v16_3-17_1-2_param-4_05112024_eval-summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,130 +436,150 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>entity_match_perfect_acc</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>entity_match_weak_acc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>correct_entity_type_acc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_distance_acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_points_acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>correct_properties_perfect_acc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>correct_properties_weak_acc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>num_hallucinated_properties</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>num_missing_properties</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>correct_height_metric</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>correct_height_distance</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>is_perfect_match_acc</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>is_parsable_yaml_acc</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>is_area_match_acc</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>are_entities_exactly_same_acc</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>percentage_entities_exactly_same_acc</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>are_entities_same_exclude_props_acc</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>percentage_entities_same_exclude_props_acc</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>are_properties_same_acc</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>are_properties_same_NA</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>percentage_properties_same_acc</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>are_relations_exactly_same_acc</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>are_relations_exactly_same_NA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>percentage_relations_same_acc</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>1 entity</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2 entities</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>3 entities</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>distance relation</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>proporties</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>typos</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>grammar mistakes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>rel spatial term</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>contains relation</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>brand/name as property</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>brand/name standalone</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>non-roman alphabet</t>
         </is>
@@ -570,82 +590,90 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4205128205128205</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="C2" t="n">
+        <v>0.9342403628117913</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9342403628117913</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0.6721311475409836</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.065573770491803</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4256410256410256</v>
+      </c>
+      <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="O2" t="n">
         <v>0.9025641025641026</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.6974358974358974</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8247863247863247</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7230769230769231</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8384615384615385</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.5522388059701493</v>
-      </c>
-      <c r="J2" t="n">
-        <v>128</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5845771144278606</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>0.4220779220779221</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
         <v>41</v>
       </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
         <v>0.6187050359712231</v>
       </c>
-      <c r="O2" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.3553719008264463</v>
-      </c>
       <c r="S2" t="n">
-        <v>0.4475524475524476</v>
+        <v>0.45</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2698412698412698</v>
+        <v>0.484375</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3218390804597701</v>
       </c>
       <c r="V2" t="n">
+        <v>0.3801652892561984</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.4405594405594406</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.282051282051282</v>
       </c>
-      <c r="W2" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="AA2" t="n">
-        <v>0.35</v>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
